--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail9 Features.xlsx
@@ -2314,7 +2314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2325,29 +2325,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2368,115 +2366,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2493,72 +2481,66 @@
         <v>5.488164334240248e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.8133608470190894</v>
+        <v>2.34947896780296e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.2842341808330739</v>
+        <v>1.380687774163041e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.34947896780296e-07</v>
+        <v>-0.02214392957630269</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.380687774163041e-06</v>
+        <v>0.2549061805114027</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02214392957630269</v>
+        <v>0.06531690718964098</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2549061805114027</v>
+        <v>1.62535528776586</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06531690718964098</v>
+        <v>1.221319654748203</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.68429238669136</v>
+        <v>32.3142608661649</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.221319654748203</v>
+        <v>3.244008644005333e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>32.3142608661649</v>
+        <v>970292785.8002424</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.244008644005333e-15</v>
+        <v>1.103656029562254e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>970292785.8002424</v>
+        <v>3054.130622586121</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.103656029562254e-07</v>
+        <v>4.380198266314543e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3054.130622586121</v>
+        <v>10.44090874275436</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.380198266314543e-05</v>
+        <v>1.402773641482253</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.44090874275436</v>
+        <v>0.004774966936619757</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.402773641482253</v>
+        <v>7.407580799641889</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004774966936619757</v>
+        <v>0.9549313556181949</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.407580799641889</v>
+        <v>0.7625065093901865</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9549313556181949</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7625065093901865</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>7.961158942711147</v>
       </c>
     </row>
@@ -2573,72 +2555,66 @@
         <v>5.367285581003155e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7372768397082115</v>
+        <v>1.71690589166302e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5223807804427874</v>
+        <v>1.38016825902083e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.71690589166302e-07</v>
+        <v>0.002332444991925677</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.38016825902083e-06</v>
+        <v>0.1951333144701816</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.002332444991925677</v>
+        <v>0.03799361564066851</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1951333144701816</v>
+        <v>1.624427509796626</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03799361564066851</v>
+        <v>1.218815831782952</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.683745345258594</v>
+        <v>31.04515698381155</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.218815831782952</v>
+        <v>3.514655279886003e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>31.04515698381155</v>
+        <v>895570658.3997208</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.514655279886003e-15</v>
+        <v>1.195734469662705e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>895570658.3997208</v>
+        <v>2818.91803504981</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.195734469662705e-07</v>
+        <v>3.340870109830684e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2818.91803504981</v>
+        <v>11.58919751091652</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.340870109830684e-05</v>
+        <v>1.072703630732761</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.58919751091652</v>
+        <v>0.004487105904984806</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.072703630732761</v>
+        <v>7.537042076358755</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004487105904984806</v>
+        <v>0.9559113683139907</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.537042076358755</v>
+        <v>0.9248947330631286</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9559113683139907</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9248947330631286</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>8.495656664574563</v>
       </c>
     </row>
@@ -2653,72 +2629,66 @@
         <v>5.482339283450033e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7601654016396312</v>
+        <v>1.827453033776724e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5160971459086419</v>
+        <v>1.380864484580289e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.827453033776724e-07</v>
+        <v>0.0220373416474655</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.380864484580289e-06</v>
+        <v>0.1467001507589177</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0220373416474655</v>
+        <v>0.02196686960995968</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1467001507589177</v>
+        <v>1.600903282058524</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02196686960995968</v>
+        <v>1.306463899267773</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.670949926831538</v>
+        <v>25.97091959450986</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.306463899267773</v>
+        <v>5.022220780145341e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>25.97091959450986</v>
+        <v>860605041.1812228</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.022220780145341e-15</v>
+        <v>1.24301797124871e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>860605041.1812228</v>
+        <v>3719.662806180389</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.24301797124871e-07</v>
+        <v>2.419348368941637e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3719.662806180389</v>
+        <v>11.59725687441833</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.419348368941637e-05</v>
+        <v>1.045951530520257</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.59725687441833</v>
+        <v>0.003253935661572273</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.045951530520257</v>
+        <v>7.889463305137186</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.003253935661572273</v>
+        <v>0.9536559741523607</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.889463305137186</v>
+        <v>0.7382931981968724</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9536559741523607</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7382931981968724</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.391377757907396</v>
       </c>
     </row>
@@ -2733,72 +2703,66 @@
         <v>5.693802802080879e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7648825875271098</v>
+        <v>1.906895671974685e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5820450659815015</v>
+        <v>1.382421215359427e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.906895671974685e-07</v>
+        <v>0.03234777428916185</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.382421215359427e-06</v>
+        <v>0.1221436481319197</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03234777428916185</v>
+        <v>0.01595395468579129</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1221436481319197</v>
+        <v>1.599500954926164</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01595395468579129</v>
+        <v>1.308185383040649</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.668729946489489</v>
+        <v>25.56927192620052</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.308185383040649</v>
+        <v>5.181240269707522e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>25.56927192620052</v>
+        <v>834209629.8974825</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.181240269707522e-15</v>
+        <v>1.282350429879755e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>834209629.8974825</v>
+        <v>3605.654671026145</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.282350429879755e-07</v>
+        <v>2.442645026821318e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3605.654671026145</v>
+        <v>10.18561777996808</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.442645026821318e-05</v>
+        <v>1.201116015212967</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.18561777996808</v>
+        <v>0.002534166284193398</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.201116015212967</v>
+        <v>7.973523380004805</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002534166284193398</v>
+        <v>0.9541767361768468</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.973523380004805</v>
+        <v>0.82214094797169</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9541767361768468</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.82214094797169</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>9.322140986835979</v>
       </c>
     </row>
@@ -2813,72 +2777,66 @@
         <v>5.923022935151868e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7425783020612918</v>
+        <v>1.938999858944401e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6856521901000034</v>
+        <v>1.384465404596682e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.938999858944401e-07</v>
+        <v>0.03728648911935441</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.384465404596682e-06</v>
+        <v>0.1081801351535658</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03728648911935441</v>
+        <v>0.01308954766783693</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1081801351535658</v>
+        <v>1.598885398642455</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01308954766783693</v>
+        <v>1.307856124105865</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.66701499285051</v>
+        <v>25.66319748434814</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.307856124105865</v>
+        <v>5.143383698643129e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>25.66319748434814</v>
+        <v>840357695.7419157</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.143383698643129e-15</v>
+        <v>1.27296930375412e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>840357695.7419157</v>
+        <v>3632.263003471929</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.27296930375412e-07</v>
+        <v>3.354443651673867e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3632.263003471929</v>
+        <v>8.922566094476329</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.354443651673867e-05</v>
+        <v>1.497038960059365</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.922566094476329</v>
+        <v>0.00267054590951792</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.497038960059365</v>
+        <v>7.675489677748891</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00267054590951792</v>
+        <v>0.9536078208384124</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.675489677748891</v>
+        <v>0.8334126063492333</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9536078208384124</v>
+        <v>11</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8334126063492333</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>8.459142642980336</v>
       </c>
     </row>
@@ -2893,72 +2851,66 @@
         <v>6.140414902970376e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7018971159109794</v>
+        <v>1.944990661720633e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8030455247064925</v>
+        <v>1.386782011098168e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.944990661720633e-07</v>
+        <v>0.03906695461891871</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.386782011098168e-06</v>
+        <v>0.1006080862192367</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03906695461891871</v>
+        <v>0.01164743663514965</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1006080862192367</v>
+        <v>1.600125409898193</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01164743663514965</v>
+        <v>1.30796672459682</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.668181173455435</v>
+        <v>26.08290888621579</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.30796672459682</v>
+        <v>4.979186660128768e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>26.08290888621579</v>
+        <v>868103082.2135305</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.979186660128768e-15</v>
+        <v>1.232293899211234e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>868103082.2135305</v>
+        <v>3752.329812180643</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.232293899211234e-07</v>
+        <v>3.356017601832435e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3752.329812180643</v>
+        <v>8.633728484795304</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.356017601832435e-05</v>
+        <v>1.481625513229015</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.633728484795304</v>
+        <v>0.002501618059579013</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.481625513229015</v>
+        <v>7.527734293617098</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002501618059579013</v>
+        <v>0.9527866521549567</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.527734293617098</v>
+        <v>0.8148231187510795</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9527866521549567</v>
+        <v>11</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8148231187510795</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>8.056476026054586</v>
       </c>
     </row>
@@ -3335,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.599928325160861</v>
+        <v>1.637477385458276</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.660370624446929</v>
@@ -3424,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.627974943698105</v>
+        <v>1.663163787408068</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.432346727508963</v>
@@ -3513,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.659836388552475</v>
+        <v>1.694769970142137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.630847147408497</v>
@@ -3602,7 +3554,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.66466290504632</v>
+        <v>1.697298566630648</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.818217731867533</v>
@@ -3691,7 +3643,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.628818453960589</v>
+        <v>1.665909793485271</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.374327396631821</v>
@@ -3780,7 +3732,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.634616729799191</v>
+        <v>1.672522204066256</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.478396947664444</v>
@@ -3869,7 +3821,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.616469503758519</v>
+        <v>1.653452492983347</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.630499798306984</v>
@@ -3958,7 +3910,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583067204170754</v>
+        <v>1.62646085745566</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.680402911763773</v>
@@ -4047,7 +3999,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.596369225328455</v>
+        <v>1.639371454673391</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.695272486498538</v>
@@ -4136,7 +4088,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.6038799129443</v>
+        <v>1.643633809256697</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.813381733942273</v>
@@ -4225,7 +4177,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.591746518653738</v>
+        <v>1.629411346178637</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.711024833663084</v>
@@ -4314,7 +4266,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.571633169060421</v>
+        <v>1.609117095545806</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.699117756393972</v>
@@ -4403,7 +4355,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580812516220056</v>
+        <v>1.616672318353493</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.62570396170686</v>
@@ -4492,7 +4444,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.582681602133248</v>
+        <v>1.617722669635145</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.681094842386722</v>
@@ -4581,7 +4533,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.601430423226013</v>
+        <v>1.635953102737375</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.63728694773866</v>
@@ -4670,7 +4622,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.602061564260753</v>
+        <v>1.639871951043849</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.883529892845215</v>
@@ -4759,7 +4711,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.618987539607296</v>
+        <v>1.657298041064706</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.721363656627409</v>
@@ -4848,7 +4800,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.629932328103911</v>
+        <v>1.667478477185036</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.858380549110322</v>
@@ -4937,7 +4889,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65107266373677</v>
+        <v>1.687952121012688</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.838374323012353</v>
@@ -5026,7 +4978,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.688397800959097</v>
+        <v>1.71888784981384</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.023239727787137</v>
@@ -5115,7 +5067,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.723460639878683</v>
+        <v>1.751266916592036</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.035429074190172</v>
@@ -5204,7 +5156,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.786733532036303</v>
+        <v>1.801482377747473</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.232314777697612</v>
@@ -5293,7 +5245,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.832762530725081</v>
+        <v>1.841817799236993</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.258965151953622</v>
@@ -5382,7 +5334,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.836756746426751</v>
+        <v>1.845701539343179</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.099684807426514</v>
@@ -5471,7 +5423,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.851577408462435</v>
+        <v>1.857200714048668</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.297121714433343</v>
@@ -5560,7 +5512,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.857466960597027</v>
+        <v>1.863652750892196</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.58829712801082</v>
@@ -5649,7 +5601,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.88857921058241</v>
+        <v>1.892900045454831</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.816761173391223</v>
@@ -5738,7 +5690,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.860739838886467</v>
+        <v>1.867998475921087</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.016062016602707</v>
@@ -5827,7 +5779,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.833775463776271</v>
+        <v>1.847899099523724</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.914074961983077</v>
@@ -5916,7 +5868,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.832609072760714</v>
+        <v>1.849617785638771</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.125920448133375</v>
@@ -6005,7 +5957,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.84132812009318</v>
+        <v>1.855222967339406</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.004874924425903</v>
@@ -6094,7 +6046,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.8145913569089</v>
+        <v>1.833055607014851</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.94776495726696</v>
@@ -6183,7 +6135,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.766199660265285</v>
+        <v>1.794474250735481</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.762373217039702</v>
@@ -6272,7 +6224,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.752685837896356</v>
+        <v>1.782626260979845</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.846823004474752</v>
@@ -6361,7 +6313,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.752900533989311</v>
+        <v>1.786678945270242</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.71084620467896</v>
@@ -6450,7 +6402,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.752946953897697</v>
+        <v>1.786042544448722</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.878995775517524</v>
@@ -6539,7 +6491,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.746591440926278</v>
+        <v>1.780051321838543</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.781287141406592</v>
@@ -6628,7 +6580,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.744686638613077</v>
+        <v>1.774507930899213</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.773013843401981</v>
@@ -6717,7 +6669,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.731727330990601</v>
+        <v>1.757684937370245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.8641051655267</v>
@@ -6806,7 +6758,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.702839416876626</v>
+        <v>1.73738501913035</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.714745757468858</v>
@@ -6895,7 +6847,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.699529832637856</v>
+        <v>1.735650535714076</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.749655418697109</v>
@@ -6984,7 +6936,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.694991968556646</v>
+        <v>1.728158470925848</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.850602903949754</v>
@@ -7073,7 +7025,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715872215419909</v>
+        <v>1.74515956036671</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.806325138981314</v>
@@ -7162,7 +7114,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.740684661816735</v>
+        <v>1.762621637253344</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.4353723375559</v>
@@ -7251,7 +7203,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.718998816457027</v>
+        <v>1.744728687820106</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.651345557801375</v>
@@ -7340,7 +7292,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.691379436814812</v>
+        <v>1.720220378759295</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.849968795892764</v>
@@ -7429,7 +7381,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.694756263931424</v>
+        <v>1.719693718703566</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.670126329297138</v>
@@ -7518,7 +7470,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.748346833640477</v>
+        <v>1.765060606806956</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.841435034920206</v>
@@ -7607,7 +7559,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.772237098817268</v>
+        <v>1.777491930650678</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.882942421052495</v>
@@ -7696,7 +7648,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.776464520350771</v>
+        <v>1.776185192363461</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.939641370893551</v>
@@ -7785,7 +7737,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.761421648898615</v>
+        <v>1.762596287026279</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.152530581369776</v>
@@ -8071,7 +8023,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800602524022047</v>
+        <v>1.79135837042155</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.04696295828714</v>
@@ -8160,7 +8112,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.809567270543237</v>
+        <v>1.80087205894479</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.341164624937071</v>
@@ -8249,7 +8201,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.778867301212516</v>
+        <v>1.780994422253792</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.564680871188408</v>
@@ -8338,7 +8290,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.759209401540387</v>
+        <v>1.756670014308398</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.490952589104328</v>
@@ -8427,7 +8379,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.729298402848216</v>
+        <v>1.735987490350957</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.482905549531546</v>
@@ -8516,7 +8468,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.723075921371926</v>
+        <v>1.72777364881468</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.513479444539172</v>
@@ -8605,7 +8557,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.714126707693767</v>
+        <v>1.718213921581191</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.476535881353999</v>
@@ -8694,7 +8646,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.695490978431906</v>
+        <v>1.697720394707747</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.386540344267098</v>
@@ -8783,7 +8735,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.694640735178592</v>
+        <v>1.701325769927605</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.423629400273248</v>
@@ -8872,7 +8824,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690463440402616</v>
+        <v>1.697346789258297</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.34760604565911</v>
@@ -8961,7 +8913,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.681969732716791</v>
+        <v>1.686486427663336</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.3663316069275</v>
@@ -9050,7 +9002,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.67703290854883</v>
+        <v>1.680073494830069</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.421137601040645</v>
@@ -9139,7 +9091,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.683699499063903</v>
+        <v>1.686085133075648</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.353731052387782</v>
@@ -9228,7 +9180,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68062169719838</v>
+        <v>1.68450446248179</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.411843446753138</v>
@@ -9317,7 +9269,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.678675317844037</v>
+        <v>1.682036338382253</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.40990789541754</v>
@@ -9406,7 +9358,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.681737790617499</v>
+        <v>1.684078753276209</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.313734252609301</v>
@@ -9495,7 +9447,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.690834822117982</v>
+        <v>1.689145993610867</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.3862686486939</v>
@@ -9584,7 +9536,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.691804528740276</v>
+        <v>1.696791004579917</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.910324155614662</v>
@@ -9673,7 +9625,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.720497469030742</v>
+        <v>1.732144188064948</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.934261434554149</v>
@@ -9762,7 +9714,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737099327522752</v>
+        <v>1.745167890175423</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.405699139414303</v>
@@ -9851,7 +9803,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.747933867354522</v>
+        <v>1.755207930659062</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.556820465475193</v>
@@ -9940,7 +9892,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.750034042988227</v>
+        <v>1.753375824645844</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.6262600293697</v>
@@ -10029,7 +9981,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.762508526859983</v>
+        <v>1.773169180880708</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.527908263703231</v>
@@ -10118,7 +10070,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.766613646505371</v>
+        <v>1.778781671866732</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.172393523879248</v>
@@ -10207,7 +10159,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.779751629660778</v>
+        <v>1.793285845675701</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.288061761554507</v>
@@ -10296,7 +10248,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.775373272806801</v>
+        <v>1.799271214196399</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.458043057085037</v>
@@ -10385,7 +10337,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.780960503839392</v>
+        <v>1.809894386056461</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.839242278939022</v>
@@ -10474,7 +10426,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.778097184684095</v>
+        <v>1.806395793251743</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.845901126694096</v>
@@ -10563,7 +10515,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.76479069126612</v>
+        <v>1.794080157411757</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.713999983976422</v>
@@ -10652,7 +10604,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.767873458043461</v>
+        <v>1.799363339019034</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.772615910066304</v>
@@ -10741,7 +10693,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.772961795354912</v>
+        <v>1.810343864141718</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.684175338824414</v>
@@ -10830,7 +10782,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.781561307909557</v>
+        <v>1.810980426843824</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.628526704712858</v>
@@ -10919,7 +10871,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.774547797944239</v>
+        <v>1.80437767156626</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.759355241499994</v>
@@ -11008,7 +10960,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.758721772269731</v>
+        <v>1.789943175572225</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.82302260613205</v>
@@ -11097,7 +11049,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.773234104343753</v>
+        <v>1.801654921454453</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.79904638854359</v>
@@ -11186,7 +11138,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.777460472929416</v>
+        <v>1.809840398719892</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.759240564143281</v>
@@ -11275,7 +11227,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.794761058793598</v>
+        <v>1.827429914970518</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.03336126424459</v>
@@ -11364,7 +11316,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.802294718902518</v>
+        <v>1.833001068718093</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.796866948384083</v>
@@ -11453,7 +11405,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.802067897967183</v>
+        <v>1.831481732904313</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.903930484410094</v>
@@ -11542,7 +11494,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.801734909328951</v>
+        <v>1.82912437522248</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.479688652045751</v>
@@ -11631,7 +11583,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.813984809446711</v>
+        <v>1.837267242114821</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.685252370749803</v>
@@ -11720,7 +11672,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.82133411973606</v>
+        <v>1.841255820483789</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.014889385424458</v>
@@ -11809,7 +11761,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.823374929912877</v>
+        <v>1.835498660044629</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.799408931072599</v>
@@ -11898,7 +11850,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.832025863839373</v>
+        <v>1.842780637577406</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.163425465889202</v>
@@ -11987,7 +11939,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.815521145558634</v>
+        <v>1.831759194856925</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.531893259094616</v>
@@ -12076,7 +12028,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.823106498878843</v>
+        <v>1.839735029001205</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.33256080938402</v>
@@ -12165,7 +12117,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.838802988363401</v>
+        <v>1.85262419649702</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.144035112005011</v>
@@ -12254,7 +12206,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.850190330183136</v>
+        <v>1.864693893142576</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.292603013962405</v>
@@ -12343,7 +12295,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.87424614175982</v>
+        <v>1.882201161087445</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.194956376606242</v>
@@ -12432,7 +12384,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.881125659278942</v>
+        <v>1.886164878977729</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.671440512399062</v>
@@ -12521,7 +12473,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.881096830532772</v>
+        <v>1.884264091888192</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.282381780613434</v>
@@ -12807,7 +12759,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.709590603970995</v>
+        <v>1.698210107290242</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.362969930178961</v>
@@ -12896,7 +12848,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.701360226496885</v>
+        <v>1.690152754359596</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.362966613056987</v>
@@ -12985,7 +12937,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.700772756610999</v>
+        <v>1.694387690853868</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.46410240414493</v>
@@ -13074,7 +13026,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.708251123408888</v>
+        <v>1.698122819319088</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.528741302318799</v>
@@ -13163,7 +13115,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710165660651554</v>
+        <v>1.701008208713364</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.362905045145323</v>
@@ -13252,7 +13204,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.703198566184639</v>
+        <v>1.695345427092656</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.561406587202671</v>
@@ -13341,7 +13293,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.703862005953227</v>
+        <v>1.699079519233646</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.675383266872491</v>
@@ -13430,7 +13382,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.699537578540903</v>
+        <v>1.69377313877275</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.542190118580672</v>
@@ -13519,7 +13471,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.69545795480613</v>
+        <v>1.689318723679268</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.533209783827672</v>
@@ -13608,7 +13560,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.694304761383884</v>
+        <v>1.682758167502035</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.54212654613042</v>
@@ -13697,7 +13649,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.694062965336137</v>
+        <v>1.684080972911988</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.43035636276272</v>
@@ -13786,7 +13738,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.690253604894157</v>
+        <v>1.682016571982832</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.437212415915955</v>
@@ -13875,7 +13827,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.688825665643044</v>
+        <v>1.681943022799759</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.439081084700178</v>
@@ -13964,7 +13916,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.695344674192127</v>
+        <v>1.686917054936309</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.521275618062069</v>
@@ -14053,7 +14005,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.689934325968567</v>
+        <v>1.684697625944441</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.490168838800922</v>
@@ -14142,7 +14094,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.708505233794528</v>
+        <v>1.707320068692504</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.273597499426332</v>
@@ -14231,7 +14183,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.740474448922122</v>
+        <v>1.733975883826846</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.297264198739065</v>
@@ -14320,7 +14272,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.749238919844909</v>
+        <v>1.743250195445548</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.879225811091725</v>
@@ -14409,7 +14361,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.760249945727787</v>
+        <v>1.757260484787567</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.386978583015122</v>
@@ -14498,7 +14450,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.776589801466151</v>
+        <v>1.771243434306538</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.363662227304142</v>
@@ -14587,7 +14539,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.799633950528046</v>
+        <v>1.787057098815298</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.297227992008284</v>
@@ -14676,7 +14628,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.823605673838596</v>
+        <v>1.799915670576041</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.513308340371372</v>
@@ -14765,7 +14717,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.840290581885087</v>
+        <v>1.815353413198003</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.545540518077818</v>
@@ -14854,7 +14806,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.856699301292647</v>
+        <v>1.82948925565696</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.042061242635626</v>
@@ -14943,7 +14895,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.874360314950595</v>
+        <v>1.846145907417699</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.661086451412607</v>
@@ -15032,7 +14984,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.867829083849991</v>
+        <v>1.843991361060402</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.07967074488531</v>
@@ -15121,7 +15073,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.877667263102152</v>
+        <v>1.85175069307007</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.981410417291405</v>
@@ -15210,7 +15162,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.880636614179492</v>
+        <v>1.852752560227435</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.100964606763301</v>
@@ -15299,7 +15251,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.885973244920707</v>
+        <v>1.861817070534828</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.158200060521984</v>
@@ -15388,7 +15340,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.895566053775307</v>
+        <v>1.864700337896309</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.839661538141778</v>
@@ -15477,7 +15429,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.902842826433669</v>
+        <v>1.869257990614085</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.694440647454655</v>
@@ -15566,7 +15518,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.895170695435651</v>
+        <v>1.861253481479943</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.773284464457474</v>
@@ -15655,7 +15607,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.874827052290113</v>
+        <v>1.84851455970435</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.467380013682992</v>
@@ -15744,7 +15696,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.881022719326562</v>
+        <v>1.854889650873517</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.648452194922084</v>
@@ -15833,7 +15785,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.879876952447387</v>
+        <v>1.854109604775146</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.854282204320632</v>
@@ -15922,7 +15874,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.877035092927788</v>
+        <v>1.854302407006236</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.414392178452254</v>
@@ -16011,7 +15963,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.865801425305056</v>
+        <v>1.853996412948922</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.376109025824871</v>
@@ -16100,7 +16052,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.86564556216011</v>
+        <v>1.855070103835788</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.519272291978223</v>
@@ -16189,7 +16141,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.853363467817486</v>
+        <v>1.843323449799607</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.228505989364357</v>
@@ -16278,7 +16230,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.84424258962737</v>
+        <v>1.835959300397932</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.495593939421135</v>
@@ -16367,7 +16319,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.846495021823578</v>
+        <v>1.836015737618465</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.161533922596097</v>
@@ -16456,7 +16408,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.84485904821216</v>
+        <v>1.831811165039245</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.263224301513168</v>
@@ -16545,7 +16497,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.853839834943505</v>
+        <v>1.837693064318671</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.397145596494665</v>
@@ -16634,7 +16586,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.84829952284239</v>
+        <v>1.831209932855703</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.130677784991916</v>
@@ -16723,7 +16675,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.847575653383306</v>
+        <v>1.830513738859826</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.022840339618732</v>
@@ -16812,7 +16764,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.839506833821756</v>
+        <v>1.825384771676907</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.880221019945437</v>
@@ -16901,7 +16853,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.844754500139909</v>
+        <v>1.834268599611087</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.966920715862208</v>
@@ -16990,7 +16942,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.865799205555161</v>
+        <v>1.842366215361011</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.818345857278057</v>
@@ -17079,7 +17031,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.869200056259218</v>
+        <v>1.846457285346677</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.395143991440361</v>
@@ -17168,7 +17120,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.875443755887899</v>
+        <v>1.850758696174868</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.089223634958103</v>
@@ -17257,7 +17209,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.878433582055383</v>
+        <v>1.854813893298374</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.910760055876202</v>
@@ -17543,7 +17495,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.65998164607614</v>
+        <v>1.645082733136786</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.978599178801125</v>
@@ -17632,7 +17584,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.670451928375207</v>
+        <v>1.654119184651254</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.647658269340782</v>
@@ -17721,7 +17673,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.672620062352671</v>
+        <v>1.667824234945456</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.871387330933603</v>
@@ -17810,7 +17762,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.683984127823826</v>
+        <v>1.674802376628411</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.843318813766677</v>
@@ -17899,7 +17851,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.718918477444676</v>
+        <v>1.713576232011391</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.552274560835898</v>
@@ -17988,7 +17940,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.727192365834314</v>
+        <v>1.719021465000459</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.577720849371496</v>
@@ -18077,7 +18029,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.72511062083325</v>
+        <v>1.714580946429471</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.476291711517159</v>
@@ -18166,7 +18118,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.718375468996682</v>
+        <v>1.708670242368091</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.509608233572524</v>
@@ -18255,7 +18207,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.72320663882091</v>
+        <v>1.716168359896689</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.591340798880628</v>
@@ -18344,7 +18296,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.723892222207441</v>
+        <v>1.720017791398337</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.451250211900716</v>
@@ -18433,7 +18385,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.734071361531804</v>
+        <v>1.724364132508116</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.530988319542717</v>
@@ -18522,7 +18474,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.72518302499176</v>
+        <v>1.719144209597114</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.473603027827513</v>
@@ -18611,7 +18563,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.738627107354374</v>
+        <v>1.72958993327469</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.424010094215904</v>
@@ -18700,7 +18652,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.742081213492891</v>
+        <v>1.733748523154476</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.454295919543736</v>
@@ -18789,7 +18741,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.753143672770783</v>
+        <v>1.742857036218332</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.465336770529982</v>
@@ -18878,7 +18830,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.751735061802549</v>
+        <v>1.739209862323361</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.541510600764007</v>
@@ -18967,7 +18919,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.752509724550109</v>
+        <v>1.73912786444002</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.229300248871924</v>
@@ -19056,7 +19008,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.761303953664704</v>
+        <v>1.745866088938736</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.529089295962687</v>
@@ -19145,7 +19097,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.765531176781879</v>
+        <v>1.751236922259677</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.555196656654694</v>
@@ -19234,7 +19186,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.746045593249979</v>
+        <v>1.726096483810234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.337578912943119</v>
@@ -19323,7 +19275,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.758973453427158</v>
+        <v>1.738318467690981</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.424553994376421</v>
@@ -19412,7 +19364,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.776636213073855</v>
+        <v>1.754492264502498</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.495158617109886</v>
@@ -19501,7 +19453,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.785282510841325</v>
+        <v>1.767190095383252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.449837363068959</v>
@@ -19590,7 +19542,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.793112475425894</v>
+        <v>1.775051878839084</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.369267299692542</v>
@@ -19679,7 +19631,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.803029905463098</v>
+        <v>1.782859850970035</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.419163369331976</v>
@@ -19768,7 +19720,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.808429024585012</v>
+        <v>1.787325546089186</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.364018961759077</v>
@@ -19857,7 +19809,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.830144571108081</v>
+        <v>1.805670517058268</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.594234850503224</v>
@@ -19946,7 +19898,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.827327387554717</v>
+        <v>1.805672080387208</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.776553349680007</v>
@@ -20035,7 +19987,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.81971747509166</v>
+        <v>1.802731425825478</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.844249452751826</v>
@@ -20124,7 +20076,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.828244844737748</v>
+        <v>1.813420746243147</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.667098036591886</v>
@@ -20213,7 +20165,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.836949353348784</v>
+        <v>1.822452766273752</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.604139405604229</v>
@@ -20302,7 +20254,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.84519243167572</v>
+        <v>1.829598226400516</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.687959725262258</v>
@@ -20391,7 +20343,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.830456469944715</v>
+        <v>1.816636520532261</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.781664035085355</v>
@@ -20480,7 +20432,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.81577612431209</v>
+        <v>1.804228428232396</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.569174728384524</v>
@@ -20569,7 +20521,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.810789339234689</v>
+        <v>1.802470398816811</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.868987936763753</v>
@@ -20658,7 +20610,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.812678442902544</v>
+        <v>1.803027815037985</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.612939475185166</v>
@@ -20747,7 +20699,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.811237279162156</v>
+        <v>1.800289316630781</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.78943036001668</v>
@@ -20836,7 +20788,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.816631758047238</v>
+        <v>1.805485583769615</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.679478435261607</v>
@@ -20925,7 +20877,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.811512469844175</v>
+        <v>1.801800056211342</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.536569781223392</v>
@@ -21014,7 +20966,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.806932652096596</v>
+        <v>1.800274049569568</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.853399376782666</v>
@@ -21103,7 +21055,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.806031137557808</v>
+        <v>1.802177735213337</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.46825531674517</v>
@@ -21192,7 +21144,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.799322749515119</v>
+        <v>1.795094200895957</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.70382287640253</v>
@@ -21281,7 +21233,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.81032152458793</v>
+        <v>1.80220486695293</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.502019227717781</v>
@@ -21370,7 +21322,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.816484057957756</v>
+        <v>1.804630906619098</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.486042685750636</v>
@@ -21459,7 +21411,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.800692582070594</v>
+        <v>1.791794958330249</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.332556882483916</v>
@@ -21548,7 +21500,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.788920083558107</v>
+        <v>1.786970362192938</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.258027099123576</v>
@@ -21637,7 +21589,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.78618963896988</v>
+        <v>1.784978072287408</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.352197121182626</v>
@@ -21726,7 +21678,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.802719343614494</v>
+        <v>1.798307461221769</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.354078752675737</v>
@@ -21815,7 +21767,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.83703139823036</v>
+        <v>1.824205141809173</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.433721452838648</v>
@@ -21904,7 +21856,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.848225391026885</v>
+        <v>1.829536508938797</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.427012439200894</v>
@@ -21993,7 +21945,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.843467316780099</v>
+        <v>1.82648074126348</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.082762468703371</v>
@@ -22279,7 +22231,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.638967769253106</v>
+        <v>1.606507265316463</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.879762414310078</v>
@@ -22368,7 +22320,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.644426318629836</v>
+        <v>1.617730029597383</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.144804724039718</v>
@@ -22457,7 +22409,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.642455107876842</v>
+        <v>1.623388192515903</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.14045513082052</v>
@@ -22546,7 +22498,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.624010084901262</v>
+        <v>1.603313668832407</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.037820548495515</v>
@@ -22635,7 +22587,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.686123921938682</v>
+        <v>1.668294349557121</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.291262773906276</v>
@@ -22724,7 +22676,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673379307660537</v>
+        <v>1.662652684192431</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.332821155132482</v>
@@ -22813,7 +22765,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.67205264465186</v>
+        <v>1.65816891053987</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.408116443976678</v>
@@ -22902,7 +22854,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.662974838500889</v>
+        <v>1.653116211357152</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.348888149426554</v>
@@ -22991,7 +22943,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.667537334756239</v>
+        <v>1.661322090501891</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.370433592507393</v>
@@ -23080,7 +23032,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.675886229588218</v>
+        <v>1.669057398525382</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.372636326456757</v>
@@ -23169,7 +23121,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.675950267207058</v>
+        <v>1.665414268702082</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.345130298044225</v>
@@ -23258,7 +23210,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.675469208062124</v>
+        <v>1.666496274506361</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.323048680611733</v>
@@ -23347,7 +23299,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.678021446952759</v>
+        <v>1.670717086716929</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.308787727850901</v>
@@ -23436,7 +23388,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68683485072679</v>
+        <v>1.677694421699069</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.31448019120922</v>
@@ -23525,7 +23477,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.691122441261627</v>
+        <v>1.682454789856449</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.305294370839427</v>
@@ -23614,7 +23566,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.703813188165432</v>
+        <v>1.705650613353788</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.353671645552987</v>
@@ -23703,7 +23655,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.689635301914474</v>
+        <v>1.692538552544929</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.34774517948973</v>
@@ -23792,7 +23744,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680377212002219</v>
+        <v>1.683272757617861</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.369377477813164</v>
@@ -23881,7 +23833,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.70418964899268</v>
+        <v>1.709212971658149</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.352511579297551</v>
@@ -23970,7 +23922,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644907796742239</v>
+        <v>1.651731895588445</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.763147279883321</v>
@@ -24059,7 +24011,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.660842843163119</v>
+        <v>1.666825612045609</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.959099882144205</v>
@@ -24148,7 +24100,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.661563305849748</v>
+        <v>1.670177155387662</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.860622262036155</v>
@@ -24237,7 +24189,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.679148283746223</v>
+        <v>1.690069205502045</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.003142933217809</v>
@@ -24326,7 +24278,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.688456868121476</v>
+        <v>1.702263136536471</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.820425934733001</v>
@@ -24415,7 +24367,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.699950092512559</v>
+        <v>1.717845371235851</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.04140774245582</v>
@@ -24504,7 +24456,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.695416548585401</v>
+        <v>1.723020119752245</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.062124708741969</v>
@@ -24593,7 +24545,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.695113371284638</v>
+        <v>1.727704989331394</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.172431274656744</v>
@@ -24682,7 +24634,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703644210145857</v>
+        <v>1.737453250129625</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.162210006829546</v>
@@ -24771,7 +24723,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.696391024555029</v>
+        <v>1.733907922975109</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.081190798917535</v>
@@ -24860,7 +24812,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.700109715347367</v>
+        <v>1.738255204312449</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.112172432103162</v>
@@ -24949,7 +24901,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.699047229966396</v>
+        <v>1.736135868664339</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.234020200839773</v>
@@ -25038,7 +24990,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.715481709108028</v>
+        <v>1.744657338009937</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.008386294779184</v>
@@ -25127,7 +25079,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.711099504500756</v>
+        <v>1.745215509905211</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.359760327672544</v>
@@ -25216,7 +25168,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.710661724165522</v>
+        <v>1.743349930460627</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.009554296090205</v>
@@ -25305,7 +25257,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.725625475186469</v>
+        <v>1.758586157954343</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.172137149805615</v>
@@ -25394,7 +25346,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.731728753810579</v>
+        <v>1.76809437963182</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.432516988355084</v>
@@ -25483,7 +25435,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.744535614836432</v>
+        <v>1.778696131987107</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.279519515696118</v>
@@ -25572,7 +25524,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.749587503562542</v>
+        <v>1.783675660462374</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.170018414355182</v>
@@ -25661,7 +25613,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.755302773805573</v>
+        <v>1.783842831336546</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.120066851643234</v>
@@ -25750,7 +25702,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.763937488480729</v>
+        <v>1.786373249424997</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.393562563009345</v>
@@ -25839,7 +25791,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.768797293421951</v>
+        <v>1.789195757183501</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.470255975889111</v>
@@ -25928,7 +25880,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.786643823920326</v>
+        <v>1.803131800682378</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.507182109139419</v>
@@ -26017,7 +25969,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.800313427053226</v>
+        <v>1.806697416852173</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.07683939008455</v>
@@ -26106,7 +26058,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.827839206660041</v>
+        <v>1.832380477060124</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.255632905235509</v>
@@ -26195,7 +26147,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.821803980334118</v>
+        <v>1.830663514367097</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.776133759178516</v>
@@ -26284,7 +26236,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.833094436755939</v>
+        <v>1.842455578311732</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.688285622225814</v>
@@ -26373,7 +26325,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.855862530056208</v>
+        <v>1.862473964806599</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.525182144072779</v>
@@ -26462,7 +26414,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.883496713899652</v>
+        <v>1.888520432386212</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.934134162933096</v>
@@ -26551,7 +26503,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.90097079922001</v>
+        <v>1.904432925657852</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.937489054065431</v>
@@ -26640,7 +26592,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.904747181111858</v>
+        <v>1.90947513459031</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.84753306094382</v>
@@ -26729,7 +26681,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.903143312228065</v>
+        <v>1.907543926881457</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.04550847056826</v>
@@ -27015,7 +26967,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.579618698853961</v>
+        <v>1.617160289912161</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.737115415750246</v>
@@ -27104,7 +27056,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.592013815596442</v>
+        <v>1.629247720382281</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.469689339748081</v>
@@ -27193,7 +27145,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.618380749559935</v>
+        <v>1.657716380770464</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.786847554309325</v>
@@ -27282,7 +27234,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62909542013846</v>
+        <v>1.663346732468412</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.935861399560575</v>
@@ -27371,7 +27323,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.631361111736539</v>
+        <v>1.664519891094926</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.679219774077235</v>
@@ -27460,7 +27412,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.645204074714747</v>
+        <v>1.675304579340316</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.618067056494159</v>
@@ -27549,7 +27501,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625438523026769</v>
+        <v>1.654718787569239</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.876198103574096</v>
@@ -27638,7 +27590,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.583913727917068</v>
+        <v>1.619613433571211</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.737221256224704</v>
@@ -27727,7 +27679,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.596671531635717</v>
+        <v>1.634358750451056</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.673046894900093</v>
@@ -27816,7 +27768,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.589047917524784</v>
+        <v>1.625724307500967</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.677641379139853</v>
@@ -27905,7 +27857,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.5801078424968</v>
+        <v>1.61613895720422</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.759302568163694</v>
@@ -27994,7 +27946,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557810699155859</v>
+        <v>1.593409559426515</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.705201768218179</v>
@@ -28083,7 +28035,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.564966058466848</v>
+        <v>1.600538867277161</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.649253177691442</v>
@@ -28172,7 +28124,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.564975632430097</v>
+        <v>1.600552876723962</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.479742454649501</v>
@@ -28261,7 +28213,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.564154539799972</v>
+        <v>1.600491767494057</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.485394279460806</v>
@@ -28350,7 +28302,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.503265181564044</v>
+        <v>1.548283983065663</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.181322681904049</v>
@@ -28439,7 +28391,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.519201807451782</v>
+        <v>1.563373246092391</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.259371432826953</v>
@@ -28528,7 +28480,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.538296351793711</v>
+        <v>1.583203542095706</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.27767006049423</v>
@@ -28617,7 +28569,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.558209319273407</v>
+        <v>1.606794691440959</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.242726544268216</v>
@@ -28706,7 +28658,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.570846369207714</v>
+        <v>1.616729912524832</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.332023704638459</v>
@@ -28795,7 +28747,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.5964721236585</v>
+        <v>1.64214616473803</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.392649545712292</v>
@@ -28884,7 +28836,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.64318596967465</v>
+        <v>1.681448384737125</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.35550432202245</v>
@@ -28973,7 +28925,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.683196450886301</v>
+        <v>1.721673106187674</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.474021543916322</v>
@@ -29062,7 +29014,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.686429702257373</v>
+        <v>1.730323843080954</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.482410503480869</v>
@@ -29151,7 +29103,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.70176084583901</v>
+        <v>1.745576534552551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.458721792547939</v>
@@ -29240,7 +29192,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.713927442872105</v>
+        <v>1.760907552317763</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.541294698795785</v>
@@ -29329,7 +29281,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.743846363120752</v>
+        <v>1.785696268205243</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.599022370326244</v>
@@ -29418,7 +29370,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.743112352097945</v>
+        <v>1.783906403697574</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.449199097476233</v>
@@ -29507,7 +29459,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.729229573478167</v>
+        <v>1.769981084860468</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.588017245230414</v>
@@ -29596,7 +29548,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.725296551561977</v>
+        <v>1.767468467350558</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.523190007529707</v>
@@ -29685,7 +29637,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.77953630821857</v>
+        <v>1.816038602228944</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.939279089059442</v>
@@ -29774,7 +29726,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.777629237779607</v>
+        <v>1.810731985022741</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.742727795061407</v>
@@ -29863,7 +29815,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.747764180192356</v>
+        <v>1.778148432619536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.64010276707662</v>
@@ -29952,7 +29904,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.711647894719767</v>
+        <v>1.748200680777002</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.857096419506858</v>
@@ -30041,7 +29993,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.712464729849048</v>
+        <v>1.744542798749129</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.590040602984765</v>
@@ -30130,7 +30082,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.721542610369988</v>
+        <v>1.753944559570385</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.722674427411313</v>
@@ -30219,7 +30171,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.727391241976799</v>
+        <v>1.761256213389672</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.726281559792055</v>
@@ -30308,7 +30260,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729459681633696</v>
+        <v>1.759544768197557</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.670462038111286</v>
@@ -30397,7 +30349,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.729683285516988</v>
+        <v>1.753934279640059</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.721733653205819</v>
@@ -30486,7 +30438,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.709687981910702</v>
+        <v>1.743118251431197</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.797554317820525</v>
@@ -30575,7 +30527,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.701709967305272</v>
+        <v>1.733666151666483</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.805124785761434</v>
@@ -30664,7 +30616,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.69583854086632</v>
+        <v>1.725804176199196</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.79547906871304</v>
@@ -30753,7 +30705,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.702431474913104</v>
+        <v>1.729995406800826</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.813721766475015</v>
@@ -30842,7 +30794,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711978793724951</v>
+        <v>1.737041152232809</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.483827502513369</v>
@@ -30931,7 +30883,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.738122517674805</v>
+        <v>1.752716879541695</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.148952874270214</v>
@@ -31020,7 +30972,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.732986358900685</v>
+        <v>1.745041500220744</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.109551814190473</v>
@@ -31109,7 +31061,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.716395862048086</v>
+        <v>1.728883202166618</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.118325320882896</v>
@@ -31198,7 +31150,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.759311850587402</v>
+        <v>1.772566206612993</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.646333325844561</v>
@@ -31287,7 +31239,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.795499129083919</v>
+        <v>1.808941627700705</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.392734921517366</v>
@@ -31376,7 +31328,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.804848082845222</v>
+        <v>1.818473849316204</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.193730419979497</v>
@@ -31465,7 +31417,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.793602280098397</v>
+        <v>1.807712004119592</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.184190672460074</v>
